--- a/아이템스펙.xlsx
+++ b/아이템스펙.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SY\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectArthas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="84">
   <si>
     <t>아이템 인포</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,10 +91,6 @@
   </si>
   <si>
     <t>아이콘 그림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명서 뒷배경 그림</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -704,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -726,15 +722,15 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -756,23 +752,20 @@
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -806,7 +799,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" s="1"/>
       <c r="I7" s="1"/>
@@ -830,13 +823,13 @@
         <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -869,7 +862,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -880,23 +873,23 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="F12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -931,29 +924,29 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -969,10 +962,10 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1007,14 +1000,14 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1025,103 +1018,103 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="K21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="K22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L22" s="1"/>
     </row>
@@ -1148,14 +1141,14 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1166,103 +1159,103 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="L28" s="1"/>
     </row>
@@ -1287,7 +1280,7 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1298,32 +1291,32 @@
     </row>
     <row r="31" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="J31" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -1349,7 +1342,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1360,26 +1353,26 @@
     </row>
     <row r="34" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>

--- a/아이템스펙.xlsx
+++ b/아이템스펙.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="86">
   <si>
     <t>아이템 인포</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,14 +51,6 @@
   </si>
   <si>
     <t>Head</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 쿨타임 감소량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(skillCoolTimeDown)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -362,6 +354,22 @@
   <si>
     <t>점프하고 내려올 때 
 데미지 주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 쿨타임 감소량(처리속도)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(GHz)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다 취소하고 저항력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(resistance)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,7 +377,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +388,30 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -408,7 +440,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -417,6 +449,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,15 +741,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="5" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="29.875" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="26.375" customWidth="1"/>
     <col min="8" max="10" width="20.625" customWidth="1"/>
@@ -723,10 +766,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -738,7 +781,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
@@ -753,19 +796,19 @@
         <v>5</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -799,7 +842,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G7" s="1"/>
       <c r="I7" s="1"/>
@@ -814,32 +857,32 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -862,7 +905,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -873,23 +916,23 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -924,29 +967,29 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="G15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="H15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -956,16 +999,20 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1000,14 +1047,14 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1018,103 +1065,103 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="K22" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L22" s="1"/>
     </row>
@@ -1141,14 +1188,14 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1159,103 +1206,103 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="J26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="J27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="J28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="L28" s="1"/>
     </row>
@@ -1280,7 +1327,7 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1291,34 +1338,33 @@
     </row>
     <row r="31" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="F31" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="H31" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="J31" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K31" s="1"/>
+      <c r="K31" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -1342,7 +1388,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1353,26 +1399,26 @@
     </row>
     <row r="34" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="H34" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1438,8 +1484,6 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -1452,8 +1496,6 @@
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
